--- a/Assets/Datas/ExcelData/CaptionsTable.xlsx
+++ b/Assets/Datas/ExcelData/CaptionsTable.xlsx
@@ -1280,7 +1280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1310,9 +1310,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1385,7 +1382,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B5058D58-8F19-46CB-9C0A-B3084FA45B21}" revisionId="171" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A8EC9F21-DD02-44EE-A57E-E5B478B8A465}" revisionId="188" version="5">
   <header guid="{0BDF201A-D557-4C39-A2EC-880A46B51B98}" dateTime="2025-04-22T01:13:21" maxSheetId="2" userName="Administrator" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1402,6 +1399,11 @@
     </sheetIdMap>
   </header>
   <header guid="{B5058D58-8F19-46CB-9C0A-B3084FA45B21}" dateTime="2025-04-22T01:24:37" maxSheetId="2" userName="Administrator" r:id="rId4" minRId="171">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A8EC9F21-DD02-44EE-A57E-E5B478B8A465}" dateTime="2025-04-26T16:32:37" maxSheetId="2" userName="Administrator" r:id="rId5" minRId="172" maxRId="188">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -3146,6 +3148,147 @@
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rsnm rId="171" sheetId="1" oldName="[CaptionsTable.xlsx]Sheet1" newName="[CaptionsTable.xlsx]Caption"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="172" sId="1">
+    <oc r="D72" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D72" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="173" sId="1">
+    <oc r="D73" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D73" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="174" sId="1">
+    <oc r="D74" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D74" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="175" sId="1">
+    <oc r="D75" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D75" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="176" sId="1">
+    <oc r="D77" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D77" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="177" sId="1">
+    <oc r="D76" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D76" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="178" sId="1">
+    <oc r="D79" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D79" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="179" sId="1">
+    <oc r="D78" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D78" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="180" sId="1">
+    <oc r="D81" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D81" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="181" sId="1">
+    <oc r="D82" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D82" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="182" sId="1">
+    <oc r="D80" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D80" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="183" sId="1">
+    <oc r="D83" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D83" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="184" sId="1">
+    <oc r="D85" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D85" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="185" sId="1">
+    <oc r="D84" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D84" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="186" sId="1">
+    <oc r="D86" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D86" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="187" sId="1">
+    <oc r="D87" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D87" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="188" sId="1">
+    <oc r="D88" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="D88" t="n">
+      <v>4</v>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -3436,7 +3579,7 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+      <selection activeCell="K35" sqref="K35:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3574,10 +3717,10 @@
       <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
         <v>0</v>
       </c>
       <c r="G4" s="10">
@@ -3612,13 +3755,13 @@
       <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
         <v>0</v>
       </c>
       <c r="H5" s="9">
@@ -3650,10 +3793,10 @@
       <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
         <v>0</v>
       </c>
       <c r="G6" s="10">
@@ -3688,13 +3831,13 @@
       <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
         <v>0</v>
       </c>
       <c r="H7" s="9">
@@ -3726,10 +3869,10 @@
       <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
         <v>0</v>
       </c>
       <c r="G8" s="10">
@@ -3764,10 +3907,10 @@
       <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
         <v>0</v>
       </c>
       <c r="G9" s="10">
@@ -3802,10 +3945,10 @@
       <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
         <v>0</v>
       </c>
       <c r="G10" s="10">
@@ -3840,10 +3983,10 @@
       <c r="D11" s="10">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
         <v>0</v>
       </c>
       <c r="G11" s="10">
@@ -3878,13 +4021,13 @@
       <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
         <v>0</v>
       </c>
       <c r="H12" s="9">
@@ -3916,10 +4059,10 @@
       <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
         <v>0</v>
       </c>
       <c r="G13" s="10">
@@ -3954,13 +4097,13 @@
       <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
         <v>0</v>
       </c>
       <c r="H14" s="9">
@@ -3992,10 +4135,10 @@
       <c r="D15" s="10">
         <v>1</v>
       </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
         <v>0</v>
       </c>
       <c r="G15" s="10">
@@ -4030,13 +4173,13 @@
       <c r="D16" s="10">
         <v>1</v>
       </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
         <v>0</v>
       </c>
       <c r="H16" s="9">
@@ -4068,10 +4211,10 @@
       <c r="D17" s="10">
         <v>1</v>
       </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
         <v>0</v>
       </c>
       <c r="G17" s="10">
@@ -4106,13 +4249,13 @@
       <c r="D18" s="10">
         <v>1</v>
       </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
         <v>0</v>
       </c>
       <c r="H18" s="9">
@@ -4144,10 +4287,10 @@
       <c r="D19" s="10">
         <v>1</v>
       </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
         <v>0</v>
       </c>
       <c r="G19" s="10">
@@ -4173,22 +4316,22 @@
       <c r="A20" s="8">
         <v>1016</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
       </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
         <v>0</v>
       </c>
       <c r="H20" s="9">
@@ -4211,19 +4354,19 @@
       <c r="A21" s="8">
         <v>1017</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="10">
         <v>1</v>
       </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
         <v>0</v>
       </c>
       <c r="G21" s="10">
@@ -4249,19 +4392,19 @@
       <c r="A22" s="8">
         <v>1018</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
       </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
         <v>0</v>
       </c>
       <c r="G22" s="10">
@@ -4287,22 +4430,22 @@
       <c r="A23" s="8">
         <v>1019</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
       </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
         <v>0</v>
       </c>
       <c r="H23" s="9">
@@ -4325,19 +4468,19 @@
       <c r="A24" s="8">
         <v>1020</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
       </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
         <v>0</v>
       </c>
       <c r="G24" s="10">
@@ -4363,22 +4506,22 @@
       <c r="A25" s="8">
         <v>1021</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="10">
         <v>1</v>
       </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
         <v>0</v>
       </c>
       <c r="H25" s="9">
@@ -4401,19 +4544,19 @@
       <c r="A26" s="8">
         <v>1022</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
       </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11">
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
         <v>0</v>
       </c>
       <c r="G26" s="10">
@@ -4439,19 +4582,19 @@
       <c r="A27" s="8">
         <v>1023</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
       </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
         <v>0</v>
       </c>
       <c r="G27" s="10">
@@ -4477,19 +4620,19 @@
       <c r="A28" s="8">
         <v>1024</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
       </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
         <v>0</v>
       </c>
       <c r="G28" s="10">
@@ -4515,22 +4658,22 @@
       <c r="A29" s="8">
         <v>1025</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
       </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
         <v>0</v>
       </c>
       <c r="H29" s="9">
@@ -4834,7 +4977,7 @@
       <c r="F37" s="10">
         <v>10</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <v>0</v>
       </c>
       <c r="H37" s="9">
@@ -5138,7 +5281,7 @@
       <c r="F45" s="10">
         <v>10</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <v>0</v>
       </c>
       <c r="H45" s="9">
@@ -5173,10 +5316,10 @@
       <c r="E46" s="10">
         <v>4</v>
       </c>
-      <c r="F46" s="11">
-        <v>0</v>
-      </c>
-      <c r="G46" s="11">
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
         <v>0</v>
       </c>
       <c r="H46" s="9">
@@ -5211,10 +5354,10 @@
       <c r="E47" s="10">
         <v>-5</v>
       </c>
-      <c r="F47" s="11">
-        <v>0</v>
-      </c>
-      <c r="G47" s="11">
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
         <v>0</v>
       </c>
       <c r="H47" s="9">
@@ -5249,10 +5392,10 @@
       <c r="E48" s="10">
         <v>-5</v>
       </c>
-      <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10">
         <v>0</v>
       </c>
       <c r="H48" s="9">
@@ -5287,10 +5430,10 @@
       <c r="E49" s="10">
         <v>-12</v>
       </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-      <c r="G49" s="11">
+      <c r="F49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10">
         <v>0</v>
       </c>
       <c r="H49" s="9">
@@ -5325,10 +5468,10 @@
       <c r="E50" s="10">
         <v>-8</v>
       </c>
-      <c r="F50" s="11">
-        <v>0</v>
-      </c>
-      <c r="G50" s="11">
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10">
         <v>0</v>
       </c>
       <c r="H50" s="9">
@@ -5363,10 +5506,10 @@
       <c r="E51" s="10">
         <v>10</v>
       </c>
-      <c r="F51" s="11">
-        <v>0</v>
-      </c>
-      <c r="G51" s="11">
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
         <v>0</v>
       </c>
       <c r="H51" s="9">
@@ -5401,10 +5544,10 @@
       <c r="E52" s="10">
         <v>-5</v>
       </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
+      <c r="F52" s="10">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
         <v>0</v>
       </c>
       <c r="H52" s="9">
@@ -5439,10 +5582,10 @@
       <c r="E53" s="10">
         <v>-10</v>
       </c>
-      <c r="F53" s="11">
-        <v>0</v>
-      </c>
-      <c r="G53" s="11">
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10">
         <v>0</v>
       </c>
       <c r="H53" s="9">
@@ -5477,10 +5620,10 @@
       <c r="E54" s="10">
         <v>-7</v>
       </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
+      <c r="F54" s="10">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10">
         <v>0</v>
       </c>
       <c r="H54" s="9">
@@ -5515,10 +5658,10 @@
       <c r="E55" s="10">
         <v>-6</v>
       </c>
-      <c r="F55" s="11">
-        <v>0</v>
-      </c>
-      <c r="G55" s="11">
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
+      <c r="G55" s="10">
         <v>0</v>
       </c>
       <c r="H55" s="9">
@@ -5553,10 +5696,10 @@
       <c r="E56" s="10">
         <v>-10</v>
       </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
         <v>0</v>
       </c>
       <c r="H56" s="9">
@@ -5591,10 +5734,10 @@
       <c r="E57" s="10">
         <v>-8</v>
       </c>
-      <c r="F57" s="11">
-        <v>0</v>
-      </c>
-      <c r="G57" s="11">
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10">
         <v>0</v>
       </c>
       <c r="H57" s="9">
@@ -5629,10 +5772,10 @@
       <c r="E58" s="10">
         <v>-5</v>
       </c>
-      <c r="F58" s="11">
-        <v>0</v>
-      </c>
-      <c r="G58" s="11">
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
+      <c r="G58" s="10">
         <v>0</v>
       </c>
       <c r="H58" s="9">
@@ -5667,10 +5810,10 @@
       <c r="E59" s="10">
         <v>-5</v>
       </c>
-      <c r="F59" s="11">
-        <v>0</v>
-      </c>
-      <c r="G59" s="11">
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
         <v>0</v>
       </c>
       <c r="H59" s="9">
@@ -5705,10 +5848,10 @@
       <c r="E60" s="10">
         <v>-10</v>
       </c>
-      <c r="F60" s="11">
-        <v>0</v>
-      </c>
-      <c r="G60" s="11">
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
         <v>0</v>
       </c>
       <c r="H60" s="9">
@@ -5743,10 +5886,10 @@
       <c r="E61" s="10">
         <v>-15</v>
       </c>
-      <c r="F61" s="11">
-        <v>0</v>
-      </c>
-      <c r="G61" s="11">
+      <c r="F61" s="10">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
         <v>0</v>
       </c>
       <c r="H61" s="9">
@@ -5769,10 +5912,10 @@
       <c r="A62" s="8">
         <v>3016</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>149</v>
       </c>
       <c r="D62" s="10">
@@ -5781,10 +5924,10 @@
       <c r="E62" s="10">
         <v>-8</v>
       </c>
-      <c r="F62" s="11">
-        <v>0</v>
-      </c>
-      <c r="G62" s="11">
+      <c r="F62" s="10">
+        <v>0</v>
+      </c>
+      <c r="G62" s="10">
         <v>0</v>
       </c>
       <c r="H62" s="9">
@@ -5807,10 +5950,10 @@
       <c r="A63" s="8">
         <v>3017</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D63" s="10">
@@ -5819,10 +5962,10 @@
       <c r="E63" s="10">
         <v>-5</v>
       </c>
-      <c r="F63" s="11">
-        <v>0</v>
-      </c>
-      <c r="G63" s="11">
+      <c r="F63" s="10">
+        <v>0</v>
+      </c>
+      <c r="G63" s="10">
         <v>0</v>
       </c>
       <c r="H63" s="9">
@@ -5845,10 +5988,10 @@
       <c r="A64" s="8">
         <v>3018</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D64" s="10">
@@ -5857,10 +6000,10 @@
       <c r="E64" s="10">
         <v>-5</v>
       </c>
-      <c r="F64" s="11">
-        <v>0</v>
-      </c>
-      <c r="G64" s="11">
+      <c r="F64" s="10">
+        <v>0</v>
+      </c>
+      <c r="G64" s="10">
         <v>0</v>
       </c>
       <c r="H64" s="9">
@@ -5883,22 +6026,22 @@
       <c r="A65" s="8">
         <v>3019</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>155</v>
       </c>
       <c r="D65" s="10">
         <v>3</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="12">
         <v>-6</v>
       </c>
-      <c r="F65" s="11">
-        <v>0</v>
-      </c>
-      <c r="G65" s="11">
+      <c r="F65" s="10">
+        <v>0</v>
+      </c>
+      <c r="G65" s="10">
         <v>0</v>
       </c>
       <c r="H65" s="9">
@@ -5921,22 +6064,22 @@
       <c r="A66" s="8">
         <v>3020</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>157</v>
       </c>
       <c r="D66" s="10">
         <v>3</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="12">
         <v>-7</v>
       </c>
-      <c r="F66" s="11">
-        <v>0</v>
-      </c>
-      <c r="G66" s="11">
+      <c r="F66" s="10">
+        <v>0</v>
+      </c>
+      <c r="G66" s="10">
         <v>0</v>
       </c>
       <c r="H66" s="9">
@@ -5959,22 +6102,22 @@
       <c r="A67" s="8">
         <v>3021</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>159</v>
       </c>
       <c r="D67" s="10">
         <v>3</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="12">
         <v>-3</v>
       </c>
-      <c r="F67" s="11">
-        <v>0</v>
-      </c>
-      <c r="G67" s="11">
+      <c r="F67" s="10">
+        <v>0</v>
+      </c>
+      <c r="G67" s="10">
         <v>0</v>
       </c>
       <c r="H67" s="9">
@@ -5997,22 +6140,22 @@
       <c r="A68" s="8">
         <v>3022</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D68" s="10">
         <v>3</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="12">
         <v>-10</v>
       </c>
-      <c r="F68" s="11">
-        <v>0</v>
-      </c>
-      <c r="G68" s="11">
+      <c r="F68" s="10">
+        <v>0</v>
+      </c>
+      <c r="G68" s="10">
         <v>0</v>
       </c>
       <c r="H68" s="9">
@@ -6035,22 +6178,22 @@
       <c r="A69" s="8">
         <v>3023</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>163</v>
       </c>
       <c r="D69" s="10">
         <v>3</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="12">
         <v>-9</v>
       </c>
-      <c r="F69" s="11">
-        <v>0</v>
-      </c>
-      <c r="G69" s="11">
+      <c r="F69" s="10">
+        <v>0</v>
+      </c>
+      <c r="G69" s="10">
         <v>0</v>
       </c>
       <c r="H69" s="9">
@@ -6073,22 +6216,22 @@
       <c r="A70" s="8">
         <v>3024</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>165</v>
       </c>
       <c r="D70" s="10">
         <v>3</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="12">
         <v>-4</v>
       </c>
-      <c r="F70" s="11">
-        <v>0</v>
-      </c>
-      <c r="G70" s="11">
+      <c r="F70" s="10">
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
         <v>0</v>
       </c>
       <c r="H70" s="9">
@@ -6111,22 +6254,22 @@
       <c r="A71" s="8">
         <v>3025</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D71" s="10">
         <v>3</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="12">
         <v>-5</v>
       </c>
-      <c r="F71" s="11">
-        <v>0</v>
-      </c>
-      <c r="G71" s="11">
+      <c r="F71" s="10">
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
         <v>0</v>
       </c>
       <c r="H71" s="9">
@@ -6156,12 +6299,12 @@
         <v>169</v>
       </c>
       <c r="D72" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E72" s="10">
         <v>30</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <v>0</v>
       </c>
       <c r="G72" s="10">
@@ -6194,12 +6337,12 @@
         <v>171</v>
       </c>
       <c r="D73" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73" s="10">
         <v>30</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <v>0</v>
       </c>
       <c r="G73" s="10">
@@ -6232,12 +6375,12 @@
         <v>173</v>
       </c>
       <c r="D74" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E74" s="10">
         <v>30</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <v>0</v>
       </c>
       <c r="G74" s="10">
@@ -6270,15 +6413,15 @@
         <v>175</v>
       </c>
       <c r="D75" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E75" s="10">
         <v>30</v>
       </c>
-      <c r="F75" s="11">
-        <v>0</v>
-      </c>
-      <c r="G75" s="11">
+      <c r="F75" s="10">
+        <v>0</v>
+      </c>
+      <c r="G75" s="10">
         <v>0</v>
       </c>
       <c r="H75" s="9">
@@ -6308,15 +6451,15 @@
         <v>177</v>
       </c>
       <c r="D76" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E76" s="10">
         <v>30</v>
       </c>
-      <c r="F76" s="11">
-        <v>0</v>
-      </c>
-      <c r="G76" s="11">
+      <c r="F76" s="10">
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
         <v>0</v>
       </c>
       <c r="H76" s="9">
@@ -6346,12 +6489,12 @@
         <v>179</v>
       </c>
       <c r="D77" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77" s="10">
         <v>30</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="10">
         <v>0</v>
       </c>
       <c r="G77" s="10">
@@ -6384,12 +6527,12 @@
         <v>181</v>
       </c>
       <c r="D78" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E78" s="10">
         <v>30</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <v>0</v>
       </c>
       <c r="G78" s="10">
@@ -6422,12 +6565,12 @@
         <v>183</v>
       </c>
       <c r="D79" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79" s="10">
         <v>30</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="10">
         <v>0</v>
       </c>
       <c r="G79" s="10">
@@ -6460,15 +6603,15 @@
         <v>185</v>
       </c>
       <c r="D80" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80" s="10">
         <v>30</v>
       </c>
-      <c r="F80" s="11">
-        <v>0</v>
-      </c>
-      <c r="G80" s="11">
+      <c r="F80" s="10">
+        <v>0</v>
+      </c>
+      <c r="G80" s="10">
         <v>0</v>
       </c>
       <c r="H80" s="9">
@@ -6498,12 +6641,12 @@
         <v>187</v>
       </c>
       <c r="D81" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" s="10">
         <v>30</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="10">
         <v>0</v>
       </c>
       <c r="G81" s="10">
@@ -6536,15 +6679,15 @@
         <v>189</v>
       </c>
       <c r="D82" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E82" s="10">
         <v>30</v>
       </c>
-      <c r="F82" s="11">
-        <v>0</v>
-      </c>
-      <c r="G82" s="11">
+      <c r="F82" s="10">
+        <v>0</v>
+      </c>
+      <c r="G82" s="10">
         <v>0</v>
       </c>
       <c r="H82" s="9">
@@ -6574,12 +6717,12 @@
         <v>191</v>
       </c>
       <c r="D83" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E83" s="10">
         <v>30</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="10">
         <v>0</v>
       </c>
       <c r="G83" s="10">
@@ -6612,12 +6755,12 @@
         <v>193</v>
       </c>
       <c r="D84" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E84" s="10">
         <v>30</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="10">
         <v>0</v>
       </c>
       <c r="G84" s="10">
@@ -6650,12 +6793,12 @@
         <v>195</v>
       </c>
       <c r="D85" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85" s="10">
         <v>30</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="10">
         <v>0</v>
       </c>
       <c r="G85" s="10">
@@ -6688,15 +6831,15 @@
         <v>197</v>
       </c>
       <c r="D86" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E86" s="10">
         <v>30</v>
       </c>
-      <c r="F86" s="11">
-        <v>0</v>
-      </c>
-      <c r="G86" s="11">
+      <c r="F86" s="10">
+        <v>0</v>
+      </c>
+      <c r="G86" s="10">
         <v>0</v>
       </c>
       <c r="H86" s="9">
@@ -6726,12 +6869,12 @@
         <v>199</v>
       </c>
       <c r="D87" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E87" s="10">
         <v>30</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="10">
         <v>0</v>
       </c>
       <c r="G87" s="10">
@@ -6764,12 +6907,12 @@
         <v>199</v>
       </c>
       <c r="D88" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E88" s="10">
         <v>30</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="10">
         <v>0</v>
       </c>
       <c r="G88" s="10">
